--- a/zero-fm/src/main/resources/plugin/fm/oob/modulat/12005_2350_ZERO-E.FAN.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/modulat/12005_2350_ZERO-E.FAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-fm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengchunmei/Desktop/AboutHotel/zero-ws/zero-extension/zero-fm/src/main/resources/plugin/fm/oob/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04371C5E-3BA1-CE45-A528-16250695BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FDF65-EF8C-C24B-8ED9-0399EDAF1CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="7560" windowWidth="28800" windowHeight="7860" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>key</t>
   </si>
@@ -275,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BLOCK_FAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0c819b99-d73a-4907-904e-0b955df9af19</t>
   </si>
   <si>
@@ -414,6 +400,30 @@
   </si>
   <si>
     <t>JSON:modulat/zero-e.finance/FAN_UNIT/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_HT_FANI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口菜单ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entryId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.fan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +617,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -921,22 +931,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="55.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -967,6 +977,8 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
@@ -996,6 +1008,12 @@
       <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
@@ -1025,10 +1043,16 @@
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>56</v>
@@ -1043,14 +1067,20 @@
         <v>59</v>
       </c>
       <c r="F5" s="5">
-        <v>2350</v>
+        <v>70005</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
         <v>55</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1186,36 +1216,36 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>A$5</f>
         <v>0c819b99-d73a-4907-904e-0b955df9af19</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>50</v>
@@ -1232,36 +1262,36 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="14" t="str">
         <f t="shared" ref="B16:B19" si="0">A$5</f>
         <v>0c819b99-d73a-4907-904e-0b955df9af19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>50</v>
@@ -1278,36 +1308,36 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0c819b99-d73a-4907-904e-0b955df9af19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>50</v>
@@ -1324,36 +1354,36 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0c819b99-d73a-4907-904e-0b955df9af19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5">
         <v>1020</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>50</v>
@@ -1370,36 +1400,36 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0c819b99-d73a-4907-904e-0b955df9af19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="5">
         <v>1025</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>50</v>
@@ -1417,7 +1447,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
